--- a/sparkhacks25_database.xlsx
+++ b/sparkhacks25_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krima\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67BE0DAA-AF7E-4541-9E75-791C87665960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDB6CAF-D3A1-46D0-84CF-0090F8F3EA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{C69DBCFC-D95C-4027-9624-BDCC63BA537C}"/>
+    <workbookView xWindow="8755" yWindow="45" windowWidth="10590" windowHeight="10145" xr2:uid="{C69DBCFC-D95C-4027-9624-BDCC63BA537C}"/>
   </bookViews>
   <sheets>
     <sheet name="math180" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="91">
   <si>
     <t>subject description</t>
   </si>
@@ -118,6 +118,198 @@
   </si>
   <si>
     <t>Mathemathics</t>
+  </si>
+  <si>
+    <t>Calculus I</t>
+  </si>
+  <si>
+    <t>sections</t>
+  </si>
+  <si>
+    <t>BD1</t>
+  </si>
+  <si>
+    <t>BD2</t>
+  </si>
+  <si>
+    <t>BD3</t>
+  </si>
+  <si>
+    <t>BD5</t>
+  </si>
+  <si>
+    <t>BD6</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>CD1</t>
+  </si>
+  <si>
+    <t>CD3</t>
+  </si>
+  <si>
+    <t>CD4</t>
+  </si>
+  <si>
+    <t>CD6</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>ED1</t>
+  </si>
+  <si>
+    <t>ED2</t>
+  </si>
+  <si>
+    <t>ED3</t>
+  </si>
+  <si>
+    <t>ED5</t>
+  </si>
+  <si>
+    <t>ED6</t>
+  </si>
+  <si>
+    <t>EL1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>FD3</t>
+  </si>
+  <si>
+    <t>FD4</t>
+  </si>
+  <si>
+    <t>FD5</t>
+  </si>
+  <si>
+    <t>FD6</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>GD1</t>
+  </si>
+  <si>
+    <t>GD2</t>
+  </si>
+  <si>
+    <t>GD4</t>
+  </si>
+  <si>
+    <t>GD5</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>KD1</t>
+  </si>
+  <si>
+    <t>KD2</t>
+  </si>
+  <si>
+    <t>KD4</t>
+  </si>
+  <si>
+    <t>KD5</t>
+  </si>
+  <si>
+    <t>KD6</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>Meet on campus</t>
+  </si>
+  <si>
+    <t>Edwards, Sean (Primary)</t>
+  </si>
+  <si>
+    <t>Promma, Nat (Primary)</t>
+  </si>
+  <si>
+    <t>Banerjee, Rishi (Primary)</t>
+  </si>
+  <si>
+    <t>Ash, Will (Primary)</t>
+  </si>
+  <si>
+    <t>Yang, Yanchao (Primary)</t>
+  </si>
+  <si>
+    <t>Hoach, Austin (Primary)</t>
+  </si>
+  <si>
+    <t>Lugo, Jonathan (Primary)</t>
+  </si>
+  <si>
+    <t>Meyer, McKinley (Primary)</t>
+  </si>
+  <si>
+    <t>Huang, Pubo (Primary)</t>
+  </si>
+  <si>
+    <t>Morris, Hank (Primary)</t>
+  </si>
+  <si>
+    <t>Hamed, Duha (Primary)</t>
+  </si>
+  <si>
+    <t>Lee, Bonghun (Primary)</t>
+  </si>
+  <si>
+    <t>Solak, John (Primary)</t>
+  </si>
+  <si>
+    <t>Capultitla Hernandez, Juan (Primary)</t>
+  </si>
+  <si>
+    <t>Polly, Regan (Primary)</t>
+  </si>
+  <si>
+    <t>Pan, Tony (Primary)</t>
+  </si>
+  <si>
+    <t>James, David (Primary)</t>
+  </si>
+  <si>
+    <t>Chridto, Nick (Primary)</t>
+  </si>
+  <si>
+    <t>Gao, Zhorui (Primary)</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Taft Hall</t>
+  </si>
+  <si>
+    <t>Stevenson Hall</t>
+  </si>
+  <si>
+    <t>Science &amp; Engineering South</t>
+  </si>
+  <si>
+    <t>Addams Hall</t>
+  </si>
+  <si>
+    <t>Discussion/Recitation</t>
+  </si>
+  <si>
+    <t>Lecture</t>
   </si>
 </sst>
 </file>
@@ -153,8 +345,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,13 +683,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD45F39-DEC2-4D2C-A27F-B8187CFF03D7}">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="V15" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="7" max="7" width="15.08984375" customWidth="1"/>
+    <col min="8" max="8" width="21.6796875" customWidth="1"/>
+    <col min="9" max="9" width="3.2265625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.58984375" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="4.7265625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.2265625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.40625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="3.6796875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6328125" customWidth="1"/>
+    <col min="21" max="21" width="8.953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.75">
       <c r="I1" t="s">
@@ -513,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -585,6 +791,2693 @@
       </c>
       <c r="B3">
         <v>180</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>41822</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="R3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3">
+        <v>313</v>
+      </c>
+      <c r="U3" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V3" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>20</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>41823</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="R4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4">
+        <v>313</v>
+      </c>
+      <c r="U4" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V4" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>20</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>41824</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.99305555555555558</v>
+      </c>
+      <c r="R5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5">
+        <v>211</v>
+      </c>
+      <c r="U5" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V5" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>21</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>41826</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="R6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6">
+        <v>309</v>
+      </c>
+      <c r="U6" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V6" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>20</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>180</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>41827</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="R7" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7">
+        <v>313</v>
+      </c>
+      <c r="U7" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V7" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>180</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>41821</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="R8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8">
+        <v>201</v>
+      </c>
+      <c r="U8" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V8" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>16378</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="R9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" t="s">
+        <v>85</v>
+      </c>
+      <c r="T9">
+        <v>313</v>
+      </c>
+      <c r="U9" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V9" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>20</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>180</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>16380</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="R10" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10">
+        <v>313</v>
+      </c>
+      <c r="U10" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V10" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>20</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>16372</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="R11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11">
+        <v>313</v>
+      </c>
+      <c r="U11" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V11" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>20</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>180</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>37819</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="R12" t="s">
+        <v>84</v>
+      </c>
+      <c r="S12" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12">
+        <v>317</v>
+      </c>
+      <c r="U12" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V12" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>180</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>38939</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="R13" t="s">
+        <v>84</v>
+      </c>
+      <c r="S13" t="s">
+        <v>87</v>
+      </c>
+      <c r="T13">
+        <v>201</v>
+      </c>
+      <c r="U13" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V13" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>80</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>180</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>42753</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="R14" t="s">
+        <v>84</v>
+      </c>
+      <c r="S14" t="s">
+        <v>85</v>
+      </c>
+      <c r="T14">
+        <v>312</v>
+      </c>
+      <c r="U14" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V14" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>20</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>180</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>42754</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="R15" t="s">
+        <v>84</v>
+      </c>
+      <c r="S15" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15">
+        <v>307</v>
+      </c>
+      <c r="U15" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V15" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>20</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>42756</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.99305555555555558</v>
+      </c>
+      <c r="R16" t="s">
+        <v>84</v>
+      </c>
+      <c r="S16" t="s">
+        <v>88</v>
+      </c>
+      <c r="T16">
+        <v>307</v>
+      </c>
+      <c r="U16" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V16" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>20</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>37825</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="R17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T17">
+        <v>307</v>
+      </c>
+      <c r="U17" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V17" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W17">
+        <v>8</v>
+      </c>
+      <c r="X17">
+        <v>20</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>37826</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="R18" t="s">
+        <v>84</v>
+      </c>
+      <c r="S18" t="s">
+        <v>88</v>
+      </c>
+      <c r="T18">
+        <v>307</v>
+      </c>
+      <c r="U18" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V18" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>20</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>180</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>42597</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="R19" t="s">
+        <v>84</v>
+      </c>
+      <c r="S19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T19">
+        <v>201</v>
+      </c>
+      <c r="U19" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V19" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W19">
+        <v>9</v>
+      </c>
+      <c r="X19">
+        <v>100</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>16388</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="R20" t="s">
+        <v>84</v>
+      </c>
+      <c r="S20" t="s">
+        <v>86</v>
+      </c>
+      <c r="T20">
+        <v>207</v>
+      </c>
+      <c r="U20" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V20" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>20</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>16389</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.99305555555555558</v>
+      </c>
+      <c r="R21" t="s">
+        <v>84</v>
+      </c>
+      <c r="S21" t="s">
+        <v>85</v>
+      </c>
+      <c r="T21">
+        <v>317</v>
+      </c>
+      <c r="U21" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V21" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>21</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>180</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>16374</v>
+      </c>
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="R22" t="s">
+        <v>84</v>
+      </c>
+      <c r="S22" t="s">
+        <v>85</v>
+      </c>
+      <c r="T22">
+        <v>317</v>
+      </c>
+      <c r="U22" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V22" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>20</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>180</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>37820</v>
+      </c>
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="R23" t="s">
+        <v>84</v>
+      </c>
+      <c r="S23" t="s">
+        <v>86</v>
+      </c>
+      <c r="T23">
+        <v>207</v>
+      </c>
+      <c r="U23" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V23" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>20</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>180</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>37821</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="R24" t="s">
+        <v>84</v>
+      </c>
+      <c r="S24" t="s">
+        <v>86</v>
+      </c>
+      <c r="T24">
+        <v>316</v>
+      </c>
+      <c r="U24" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V24" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>20</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>180</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>38940</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="R25" t="s">
+        <v>84</v>
+      </c>
+      <c r="S25" t="s">
+        <v>87</v>
+      </c>
+      <c r="T25">
+        <v>201</v>
+      </c>
+      <c r="U25" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V25" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <v>101</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>180</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>16371</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="R26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26" t="s">
+        <v>88</v>
+      </c>
+      <c r="T26">
+        <v>307</v>
+      </c>
+      <c r="U26" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V26" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>20</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>180</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>16369</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="R27" t="s">
+        <v>84</v>
+      </c>
+      <c r="S27" t="s">
+        <v>88</v>
+      </c>
+      <c r="T27">
+        <v>307</v>
+      </c>
+      <c r="U27" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V27" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W27">
+        <v>6</v>
+      </c>
+      <c r="X27">
+        <v>20</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>180</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>16370</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="R28" t="s">
+        <v>84</v>
+      </c>
+      <c r="S28" t="s">
+        <v>88</v>
+      </c>
+      <c r="T28">
+        <v>307</v>
+      </c>
+      <c r="U28" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V28" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>20</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>180</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>30899</v>
+      </c>
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="R29" t="s">
+        <v>84</v>
+      </c>
+      <c r="S29" t="s">
+        <v>85</v>
+      </c>
+      <c r="T29">
+        <v>317</v>
+      </c>
+      <c r="U29" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V29" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>20</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>180</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>37822</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="R30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S30" t="s">
+        <v>88</v>
+      </c>
+      <c r="T30">
+        <v>307</v>
+      </c>
+      <c r="U30" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V30" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W30">
+        <v>11</v>
+      </c>
+      <c r="X30">
+        <v>20</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>180</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>38941</v>
+      </c>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="R31" t="s">
+        <v>84</v>
+      </c>
+      <c r="S31" t="s">
+        <v>87</v>
+      </c>
+      <c r="T31">
+        <v>201</v>
+      </c>
+      <c r="U31" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V31" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W31">
+        <v>18</v>
+      </c>
+      <c r="X31">
+        <v>100</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>180</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>35752</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="R32" t="s">
+        <v>84</v>
+      </c>
+      <c r="S32" t="s">
+        <v>85</v>
+      </c>
+      <c r="T32">
+        <v>317</v>
+      </c>
+      <c r="U32" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V32" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>20</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>180</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>16367</v>
+      </c>
+      <c r="G33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="R33" t="s">
+        <v>84</v>
+      </c>
+      <c r="S33" t="s">
+        <v>85</v>
+      </c>
+      <c r="T33">
+        <v>313</v>
+      </c>
+      <c r="U33" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V33" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W33">
+        <v>7</v>
+      </c>
+      <c r="X33">
+        <v>20</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>180</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>21161</v>
+      </c>
+      <c r="G34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="R34" t="s">
+        <v>84</v>
+      </c>
+      <c r="S34" t="s">
+        <v>85</v>
+      </c>
+      <c r="T34">
+        <v>317</v>
+      </c>
+      <c r="U34" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V34" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W34">
+        <v>6</v>
+      </c>
+      <c r="X34">
+        <v>20</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>180</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>16366</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="R35" t="s">
+        <v>84</v>
+      </c>
+      <c r="S35" t="s">
+        <v>86</v>
+      </c>
+      <c r="T35">
+        <v>311</v>
+      </c>
+      <c r="U35" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V35" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W35">
+        <v>4</v>
+      </c>
+      <c r="X35">
+        <v>20</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>180</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>37824</v>
+      </c>
+      <c r="G36" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="R36" t="s">
+        <v>84</v>
+      </c>
+      <c r="S36" t="s">
+        <v>86</v>
+      </c>
+      <c r="T36">
+        <v>212</v>
+      </c>
+      <c r="U36" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V36" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>20</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>38942</v>
+      </c>
+      <c r="G37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="R37" t="s">
+        <v>84</v>
+      </c>
+      <c r="S37" t="s">
+        <v>87</v>
+      </c>
+      <c r="T37">
+        <v>201</v>
+      </c>
+      <c r="U37" s="2">
+        <v>45670</v>
+      </c>
+      <c r="V37" s="2">
+        <v>45779</v>
+      </c>
+      <c r="W37">
+        <v>18</v>
+      </c>
+      <c r="X37">
+        <v>100</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +3489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F51906-EAE3-47B3-A5FA-BC74C5E8A830}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
